--- a/myPapers/NFES_Review/Literature_Review_Manager.xlsx
+++ b/myPapers/NFES_Review/Literature_Review_Manager.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_Thesis/myPapers/NFES_Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{5E0509F6-39C9-4567-92D5-CCEC2863E4E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EEC0F056-D4F2-4C24-91A1-B785A55DBAC5}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{5E0509F6-39C9-4567-92D5-CCEC2863E4E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C75A4D9-0D0F-473B-9A8B-7BBB95C41908}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="23490" windowHeight="11685" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Literature DB" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>Author</t>
   </si>
@@ -428,6 +428,9 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>10.1063/1.1592638</t>
   </si>
 </sst>
 </file>
@@ -877,12 +880,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,20 +972,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="315" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" ht="315" x14ac:dyDescent="0.25">
+      <c r="E4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -998,25 +1008,25 @@
           <x14:formula1>
             <xm:f>Item_Types!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>I989:I991 H2:H991</xm:sqref>
+          <xm:sqref>I990:I992 H2:H992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Knowledge_Type!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J991</xm:sqref>
+          <xm:sqref>J2:J992</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Setting!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I988</xm:sqref>
+          <xm:sqref>I2:I989</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Methodology!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M988</xm:sqref>
+          <xm:sqref>M2:M989</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
